--- a/test/config.xlsx
+++ b/test/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27940" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>#name</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>*</t>
   </si>
   <si>
     <t>#desc</t>
@@ -92,7 +89,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -134,6 +131,20 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -189,11 +200,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -226,9 +243,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="1"/>
+    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -583,7 +602,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -614,51 +633,51 @@
         <v>5</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" customHeight="1">
       <c r="B5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1">
       <c r="B6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="B7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="D7" s="7">
         <v>889</v>
@@ -666,16 +685,16 @@
     </row>
     <row r="8" spans="1:4" ht="17.25" customHeight="1">
       <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.25" customHeight="1">
